--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_450.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33198-d271588-Reviews-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>68</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Key-Inn-Suites.h1635271.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_450.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_450.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,768 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r559047052-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>33198</t>
+  </si>
+  <si>
+    <t>271588</t>
+  </si>
+  <si>
+    <t>559047052</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>YUKK - zero stars!</t>
+  </si>
+  <si>
+    <t>This was the nastiest place we have ever been.YUKK ... We requested non-smoking, it was dingy, smoky, stinky, the bed had a plastic wrap on it.  So gross ... we never took our shoes off.We think it's a short term (maybe long term) rental place for transients.We did not feel safe, but we were only staying one night.  We had already paid and we were on a budget and no extra money for a new hotel. FYI: The office was 2-3 blocks away in a completely different property.DO NOT STAY HERE!MoreShow less</t>
+  </si>
+  <si>
+    <t>Erin T, General Manager at Key Inn, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>This was the nastiest place we have ever been.YUKK ... We requested non-smoking, it was dingy, smoky, stinky, the bed had a plastic wrap on it.  So gross ... we never took our shoes off.We think it's a short term (maybe long term) rental place for transients.We did not feel safe, but we were only staying one night.  We had already paid and we were on a budget and no extra money for a new hotel. FYI: The office was 2-3 blocks away in a completely different property.DO NOT STAY HERE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r543737452-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>543737452</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Just a normal motel...!!</t>
+  </si>
+  <si>
+    <t>Not good if you are going to stay with your family. Other residents were drinking and smoking in their porches...car parking was not good...most of the time I was worried that my car should be safe...!! No breakfast...No coffee...!!!</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r526386199-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>526386199</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>The worst ever!!!</t>
+  </si>
+  <si>
+    <t>I was greeted by a number of, obviously, long-term residents drinking beer on their "porches" &amp; tinkering with cars that hadn't run during the last 2 administrations. Things only got better when i went into my room to find the most uncomfortable, work out, bed covered (barely) by a single sheet well passed it's prime with cigarette burns in both the blanket (thinner than the sheet) and the chair. If the floor had been washed or the carpet vacuumed it was not recently. Beyond that, the differed maintenance on the building showed the owners care only about the current cash flow. Do yourself a favor &amp; stay anywhere else.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r495755021-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>495755021</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Stinks</t>
+  </si>
+  <si>
+    <t>This place smells like urine. Everyone has their doors open because all the rooms stink. Phone doesn't work to call the office. It was unplugged and there wasn't even a place to plug it in. Don't waste your money here!!!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r488299555-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>488299555</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is what it is. </t>
+  </si>
+  <si>
+    <t>It's a fairly priced places to stay, conveniently located right off the 5 fwy at Redhill with a Dennys within 500 yards and right behind a little strip mall with a big lots and coin laundry mat and smoke shop. The place has water bugs (cockroaches without the fear of lights) near the plantation on the bottom floors but upstairs I had minimal bug sightings. The staff was friendly and moved me from room to room and offered assistance from their staff which was appreciated. Overall the staff and their willing to help and cheerful greetings made the stay worthwhile but it's a little busy after dark with questionable characters - but they do have a security man that does a fair job at running off loiterers. Biggest complaint is they do not have a deadbolt or some sort of latch above the door handle out of reach or children therefore my 2 year old daughter could easily open the door and unlock it and run out- and did so more than once. Something should be added. It's a cheap and easy fix. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>It's a fairly priced places to stay, conveniently located right off the 5 fwy at Redhill with a Dennys within 500 yards and right behind a little strip mall with a big lots and coin laundry mat and smoke shop. The place has water bugs (cockroaches without the fear of lights) near the plantation on the bottom floors but upstairs I had minimal bug sightings. The staff was friendly and moved me from room to room and offered assistance from their staff which was appreciated. Overall the staff and their willing to help and cheerful greetings made the stay worthwhile but it's a little busy after dark with questionable characters - but they do have a security man that does a fair job at running off loiterers. Biggest complaint is they do not have a deadbolt or some sort of latch above the door handle out of reach or children therefore my 2 year old daughter could easily open the door and unlock it and run out- and did so more than once. Something should be added. It's a cheap and easy fix. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r487086231-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>487086231</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Very good handyman on site</t>
+  </si>
+  <si>
+    <t>Family trip to Disneyland and CA Adventure. Easy to get to off the 5 with plenty of restaurants a walk away. Area is sketchy but no problem for my family. First thing we noticed was the back battery plate of the TV remote was missing so batteries kept popping out. TV channels were out so we called the front desk and first time we met Chris, the handyman/maintenance. He knew exactly what to do meaning it happens often. TV worked for the night, I saw what he did so I fixed it the next few times. My 2 year old wanted to eat microwavable noodles, I put them in and noticed the inside of the microwave was burnt. Called front desk they sent Chris with a brand new one still unopened in the box. Chris set it up and left, I placed the noodles in and set the timer. The microwave started and after a few minutes I checked on them, timer hadn't started but the plate was rotating and light was on as if was cooking. I opened the microwave up and checked the noodles, still cold. I reset the microwave timer, and closed the door, but the microwave started back up as it was before without the timer being set up. I tried fixing it by unplugging it but no luck. The front desk was called once again. Chris was back saw and I explained what had happened,...Family trip to Disneyland and CA Adventure. Easy to get to off the 5 with plenty of restaurants a walk away. Area is sketchy but no problem for my family. First thing we noticed was the back battery plate of the TV remote was missing so batteries kept popping out. TV channels were out so we called the front desk and first time we met Chris, the handyman/maintenance. He knew exactly what to do meaning it happens often. TV worked for the night, I saw what he did so I fixed it the next few times. My 2 year old wanted to eat microwavable noodles, I put them in and noticed the inside of the microwave was burnt. Called front desk they sent Chris with a brand new one still unopened in the box. Chris set it up and left, I placed the noodles in and set the timer. The microwave started and after a few minutes I checked on them, timer hadn't started but the plate was rotating and light was on as if was cooking. I opened the microwave up and checked the noodles, still cold. I reset the microwave timer, and closed the door, but the microwave started back up as it was before without the timer being set up. I tried fixing it by unplugging it but no luck. The front desk was called once again. Chris was back saw and I explained what had happened, it was determined it was a bad new microwave, the he would leave a note for the manager of the problem and explained the are no other microwaves. He realized the only other microwave he had was the one in the employee break room. He quickly went to test it and brought it to the room. Chris was very helpful. ... The other problems were; there are no TV channels listing sheet so it's channel surfing until you find something. There is no map of the layout of the motel so I had to go on a exploration trip to find the ice machine, didn't try to continue to see the pool(if there is a pool?)at midnight. After a long day at Disneyland I gave my son a shower, and I took one too, after eating and placing my son next to fiancee in the bed for the night I noticed the bottom of his feet were black. I was mad since he always gets dirty outside but I realize he didn't go outside, I looked at my feet too, black. Looked like the carpet hadn't been cleaned for a while. Socks required for the rest of the stay. ... Bed was nothing special, sheets were clean but small for two adults in bed. Would of rated 1 point/terrible if not for maintenance being there. MoreShow less</t>
+  </si>
+  <si>
+    <t>Family trip to Disneyland and CA Adventure. Easy to get to off the 5 with plenty of restaurants a walk away. Area is sketchy but no problem for my family. First thing we noticed was the back battery plate of the TV remote was missing so batteries kept popping out. TV channels were out so we called the front desk and first time we met Chris, the handyman/maintenance. He knew exactly what to do meaning it happens often. TV worked for the night, I saw what he did so I fixed it the next few times. My 2 year old wanted to eat microwavable noodles, I put them in and noticed the inside of the microwave was burnt. Called front desk they sent Chris with a brand new one still unopened in the box. Chris set it up and left, I placed the noodles in and set the timer. The microwave started and after a few minutes I checked on them, timer hadn't started but the plate was rotating and light was on as if was cooking. I opened the microwave up and checked the noodles, still cold. I reset the microwave timer, and closed the door, but the microwave started back up as it was before without the timer being set up. I tried fixing it by unplugging it but no luck. The front desk was called once again. Chris was back saw and I explained what had happened,...Family trip to Disneyland and CA Adventure. Easy to get to off the 5 with plenty of restaurants a walk away. Area is sketchy but no problem for my family. First thing we noticed was the back battery plate of the TV remote was missing so batteries kept popping out. TV channels were out so we called the front desk and first time we met Chris, the handyman/maintenance. He knew exactly what to do meaning it happens often. TV worked for the night, I saw what he did so I fixed it the next few times. My 2 year old wanted to eat microwavable noodles, I put them in and noticed the inside of the microwave was burnt. Called front desk they sent Chris with a brand new one still unopened in the box. Chris set it up and left, I placed the noodles in and set the timer. The microwave started and after a few minutes I checked on them, timer hadn't started but the plate was rotating and light was on as if was cooking. I opened the microwave up and checked the noodles, still cold. I reset the microwave timer, and closed the door, but the microwave started back up as it was before without the timer being set up. I tried fixing it by unplugging it but no luck. The front desk was called once again. Chris was back saw and I explained what had happened, it was determined it was a bad new microwave, the he would leave a note for the manager of the problem and explained the are no other microwaves. He realized the only other microwave he had was the one in the employee break room. He quickly went to test it and brought it to the room. Chris was very helpful. ... The other problems were; there are no TV channels listing sheet so it's channel surfing until you find something. There is no map of the layout of the motel so I had to go on a exploration trip to find the ice machine, didn't try to continue to see the pool(if there is a pool?)at midnight. After a long day at Disneyland I gave my son a shower, and I took one too, after eating and placing my son next to fiancee in the bed for the night I noticed the bottom of his feet were black. I was mad since he always gets dirty outside but I realize he didn't go outside, I looked at my feet too, black. Looked like the carpet hadn't been cleaned for a while. Socks required for the rest of the stay. ... Bed was nothing special, sheets were clean but small for two adults in bed. Would of rated 1 point/terrible if not for maintenance being there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r466166630-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>466166630</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Too sketchy for families</t>
+  </si>
+  <si>
+    <t>We made the mistake of booking 1 Thursday night here when we needed to have our house tented for termites. We were new to the area, and our house is in a nice neighborhood about 1 mile away.  We thought it would be most convenient to take the kids to  school from here, then we planned to go out of town after school ended Friday afternoon. MISTAKE. This place is a dump. Totally seedy. Totally sketchy people here. The room was GROSS, with thin walls and who knows what kooties on the surfaces. I've never regretted a hotel decision more and wished I would have booked at the Marriott just 2 miles away.If you're looking for a dumpy motel because you're despondent or depressed, this is an appropriate venue from which to drown your sorrows. Heck, it might make you feel better about life, and you'll go home with new resolve and hope in the morning.  But this is NOT a place to bring your spouse and children for a decent stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We made the mistake of booking 1 Thursday night here when we needed to have our house tented for termites. We were new to the area, and our house is in a nice neighborhood about 1 mile away.  We thought it would be most convenient to take the kids to  school from here, then we planned to go out of town after school ended Friday afternoon. MISTAKE. This place is a dump. Totally seedy. Totally sketchy people here. The room was GROSS, with thin walls and who knows what kooties on the surfaces. I've never regretted a hotel decision more and wished I would have booked at the Marriott just 2 miles away.If you're looking for a dumpy motel because you're despondent or depressed, this is an appropriate venue from which to drown your sorrows. Heck, it might make you feel better about life, and you'll go home with new resolve and hope in the morning.  But this is NOT a place to bring your spouse and children for a decent stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r464289488-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>464289488</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Ok if you are a guy</t>
+  </si>
+  <si>
+    <t>a room and a bed for cheap - guys, don't ever take your wife here...this is a place where you can crash for cheap, safe, fairly clean and hot shower.  Rooms were good size, a little freeway noise but not bothersome...easy to get to and get back on the I=5.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r464073133-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>464073133</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Dusty, thin walls, sketchy neighborhood, cheap</t>
+  </si>
+  <si>
+    <t>There were 3 of us, one adult 2 kids. We were given 1 king bed for the price of $134 for 2 nights, tax fees included. Super cheap but it came with uncomfortable stay. My son got his allergy back that triggered his asthma attack on the first night. It means the place is dusty. The fan the heater/AC it too strong, even the lowest setting. I was afraid it circulated the dust in the room in the air. The bathroom is renovated but the shower got very steamy, until the whole floor got wet the whole time, your feet got wet every time you enter the bathroom.The soap crumbles when you open the wrapper. The house keeping did not do a good job. They left water marks, wet area on the table.MoreShow less</t>
+  </si>
+  <si>
+    <t>There were 3 of us, one adult 2 kids. We were given 1 king bed for the price of $134 for 2 nights, tax fees included. Super cheap but it came with uncomfortable stay. My son got his allergy back that triggered his asthma attack on the first night. It means the place is dusty. The fan the heater/AC it too strong, even the lowest setting. I was afraid it circulated the dust in the room in the air. The bathroom is renovated but the shower got very steamy, until the whole floor got wet the whole time, your feet got wet every time you enter the bathroom.The soap crumbles when you open the wrapper. The house keeping did not do a good job. They left water marks, wet area on the table.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r443184947-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>443184947</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Disgusting, dirty, don't EVER stay here. They blamed it on Priceline.</t>
+  </si>
+  <si>
+    <t>This was the worst motel we have ever stayed in. It was dirty, moldy, decrepit, smelly; shower was burning hot or ice cold. Had to cover the spread with a sheet. It did not deserve a spoke on a star. The tiny cake of soap broke after one use. The towels were like rags. When we complained that the pictures did not represent their place, they said it was the fault of Priceline. Give me a break! Priceline does not go out and do pictures.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r409011006-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>409011006</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Yuck</t>
+  </si>
+  <si>
+    <t>This hotel had 2 1/2 stars and was over by at least 2 stars!! The rooms were tiny and dirty and poor quality beds!  The bathrooms were dirty and moldy in the cracks and the toilet had a slow leak!  The people hanging around the outside were a little suspicious!I didn't do enough research, I suggest you STAY AWAY!!!!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r394554354-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>394554354</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Don't stay here unless you have to</t>
+  </si>
+  <si>
+    <t>My boyfriend and I came to LA for a week for a vacation and the place that we were staying before we got to key inn didn't work out and while being tight on money I searched places with a AAA discount and came across key inn. The front desk staff was very nice and easy to work with. We got our room key and everything was great. Until we turned the fan on and the room began to smell like urine. Once we turned the A/C on the smell went away. Then after sleeping for a night the bottom sheet came down and there were 2 huge urine stains on the mattress. Then the night before we left the neighbors next to us were up all night fighting and banging on the walls. If I had more money I would not have ever stayed at this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My boyfriend and I came to LA for a week for a vacation and the place that we were staying before we got to key inn didn't work out and while being tight on money I searched places with a AAA discount and came across key inn. The front desk staff was very nice and easy to work with. We got our room key and everything was great. Until we turned the fan on and the room began to smell like urine. Once we turned the A/C on the smell went away. Then after sleeping for a night the bottom sheet came down and there were 2 huge urine stains on the mattress. Then the night before we left the neighbors next to us were up all night fighting and banging on the walls. If I had more money I would not have ever stayed at this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r382278001-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>382278001</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Horrible hotel glad I was only in it to sleep. Nothing good to say about it , the non smoking room smelled of smoke. The shower was cracked and chipping away the shower head was full of lime and rusty. Feet got dirty walking in the carpet this place is in need of some renovations.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r374962739-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>374962739</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Had to get a nights rest away from broken AC</t>
+  </si>
+  <si>
+    <t>So my AC broke down and while I was getting it repaired I had to get a nights rest here. Ok worst place on the planet? Maybe not. But man is this place bad, they charged me 89 dollars for a single bed single room no amenities and I should've just coughed up the 20 extra to go to a residence inn Marriott but I was so tired and lazy I just couldn't. Shame on me, I contributed to the lack thereof service here. Stay away travelers, you have been warned!</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r362707055-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>362707055</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>Good Budget Hotel</t>
+  </si>
+  <si>
+    <t>Real good value for money, near by good restaurants, indian chinese, wine shops,Pros's1.on highway still not noisy2. Friendly staff3. clean rooms and good amenities4. micro wave, fridge, ironing table all working well,5. clean toilets,Con's1. no much channel to watch. book throgh booking.com and got good price</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r321008740-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>321008740</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Roach Infested Place</t>
+  </si>
+  <si>
+    <t>This hotel has a deceiving exterior appearance.  The rooms say remodeled but the rug is old, dirty, and smells.  We had to fog our room because we kept finding ants and spiders in random corners.  We also ended up checking out and asking for a refund because we would get attacked by huge flying roaches every night as we would try to get into our room.  Staff had a very poor attitude and really didn't care and even said, "Well, they're Not inside the room, they're outside" and didn't do anything to correct the issue. AC's also shut off and on all night and have no feature for constant fan.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>AR_KEYINN, General Manager at Key Inn, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>This hotel has a deceiving exterior appearance.  The rooms say remodeled but the rug is old, dirty, and smells.  We had to fog our room because we kept finding ants and spiders in random corners.  We also ended up checking out and asking for a refund because we would get attacked by huge flying roaches every night as we would try to get into our room.  Staff had a very poor attitude and really didn't care and even said, "Well, they're Not inside the room, they're outside" and didn't do anything to correct the issue. AC's also shut off and on all night and have no feature for constant fan.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r304223170-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>304223170</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>It was great for two nights, the it went down hill</t>
+  </si>
+  <si>
+    <t>Thanks Yelp, but even when I spoke with the Owner/Manager named: George, he and his staff still chose to do "Nothing" to bring a positive resolution to a less than pleasant stay. I stayed here for a total of Nine Days. The first room was alright, considering that I had to get some Carpet orderizer. The second and third room, before my early check out from my planned Weekly rate that I paid had its issues too.
+Cockroaches and broken bathroom items, such as the Soap Dish in the Shower area of a Disabled accommodated bathroom. I have the pictures to prove it. After my second day here there were numerous issues such as: People having a party, with excessive noise well after 11:00 pm and that is outside of the rooms in the promenade area. Plus! Other hotel guests that would be stomping excessively, as well as Loudly playing their television where if I had my television volume on 30 decibels..., that was not enough in order to shut out the distracted sounds from other guests rooms. 
+When I checked out, I was given a refund: For the Days that I had Paid Ahead of Time for, but was not willing to use as I had enough. This place should be ashamed: They have these cards at the check-in desk and I am adding my photo's here, for you, as it is in Total Contradiction to what they provide....Thanks Yelp, but even when I spoke with the Owner/Manager named: George, he and his staff still chose to do "Nothing" to bring a positive resolution to a less than pleasant stay. I stayed here for a total of Nine Days. The first room was alright, considering that I had to get some Carpet orderizer. The second and third room, before my early check out from my planned Weekly rate that I paid had its issues too.Cockroaches and broken bathroom items, such as the Soap Dish in the Shower area of a Disabled accommodated bathroom. I have the pictures to prove it. After my second day here there were numerous issues such as: People having a party, with excessive noise well after 11:00 pm and that is outside of the rooms in the promenade area. Plus! Other hotel guests that would be stomping excessively, as well as Loudly playing their television where if I had my television volume on 30 decibels..., that was not enough in order to shut out the distracted sounds from other guests rooms. When I checked out, I was given a refund: For the Days that I had Paid Ahead of Time for, but was not willing to use as I had enough. This place should be ashamed: They have these cards at the check-in desk and I am adding my photo's here, for you, as it is in Total Contradiction to what they provide. I had hoped that the Manager would've contacted me by now, but no he still hasn't.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thanks Yelp, but even when I spoke with the Owner/Manager named: George, he and his staff still chose to do "Nothing" to bring a positive resolution to a less than pleasant stay. I stayed here for a total of Nine Days. The first room was alright, considering that I had to get some Carpet orderizer. The second and third room, before my early check out from my planned Weekly rate that I paid had its issues too.
+Cockroaches and broken bathroom items, such as the Soap Dish in the Shower area of a Disabled accommodated bathroom. I have the pictures to prove it. After my second day here there were numerous issues such as: People having a party, with excessive noise well after 11:00 pm and that is outside of the rooms in the promenade area. Plus! Other hotel guests that would be stomping excessively, as well as Loudly playing their television where if I had my television volume on 30 decibels..., that was not enough in order to shut out the distracted sounds from other guests rooms. 
+When I checked out, I was given a refund: For the Days that I had Paid Ahead of Time for, but was not willing to use as I had enough. This place should be ashamed: They have these cards at the check-in desk and I am adding my photo's here, for you, as it is in Total Contradiction to what they provide....Thanks Yelp, but even when I spoke with the Owner/Manager named: George, he and his staff still chose to do "Nothing" to bring a positive resolution to a less than pleasant stay. I stayed here for a total of Nine Days. The first room was alright, considering that I had to get some Carpet orderizer. The second and third room, before my early check out from my planned Weekly rate that I paid had its issues too.Cockroaches and broken bathroom items, such as the Soap Dish in the Shower area of a Disabled accommodated bathroom. I have the pictures to prove it. After my second day here there were numerous issues such as: People having a party, with excessive noise well after 11:00 pm and that is outside of the rooms in the promenade area. Plus! Other hotel guests that would be stomping excessively, as well as Loudly playing their television where if I had my television volume on 30 decibels..., that was not enough in order to shut out the distracted sounds from other guests rooms. When I checked out, I was given a refund: For the Days that I had Paid Ahead of Time for, but was not willing to use as I had enough. This place should be ashamed: They have these cards at the check-in desk and I am adding my photo's here, for you, as it is in Total Contradiction to what they provide. I had hoped that the Manager would've contacted me by now, but no he still hasn't.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r300696849-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>300696849</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>This was the worst hotel experience I've ever had.  Upon entering, the door lock kept getting stuck and every time we entered we had to repeatedly reinsert the card until the door would open.  A lamp was broken and did not work.  My kids wanted to swim in the pool and did so for about ten minutes, when some adults decided it was time to drink and smoke weed by the pool, with no regard of who was around and the pool was located right in front of the office and nobody would say anything to them!  But the worst part was that at 1 in the morning, there was a party going on upstairs and they were loud and drinking.  I called to complain and asked if security would tell them to stop.  Two hours later, the party continued and my family was unable to sleep untl 4 in the morning, when I called again and asked them that if they did not stop this party, I would take matters into my own hands and call the police.  Finally, about five minutes later, it finally got quiet.  We should have never been put through that.  My family were on vacation and this was not what we expected to pay for.  At checkout, we were not charged the rate that we had secured over the phone.  Very upsetting to have wasted our time and money here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This was the worst hotel experience I've ever had.  Upon entering, the door lock kept getting stuck and every time we entered we had to repeatedly reinsert the card until the door would open.  A lamp was broken and did not work.  My kids wanted to swim in the pool and did so for about ten minutes, when some adults decided it was time to drink and smoke weed by the pool, with no regard of who was around and the pool was located right in front of the office and nobody would say anything to them!  But the worst part was that at 1 in the morning, there was a party going on upstairs and they were loud and drinking.  I called to complain and asked if security would tell them to stop.  Two hours later, the party continued and my family was unable to sleep untl 4 in the morning, when I called again and asked them that if they did not stop this party, I would take matters into my own hands and call the police.  Finally, about five minutes later, it finally got quiet.  We should have never been put through that.  My family were on vacation and this was not what we expected to pay for.  At checkout, we were not charged the rate that we had secured over the phone.  Very upsetting to have wasted our time and money here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r261264440-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>261264440</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>great low cost stay</t>
+  </si>
+  <si>
+    <t>staff was nice big plus. rooms are average size room and clean. its a no thrill stay which is fine, when you need a quiet place to stay. you are not far from lots of fast food places. The only thing i would like them too upgrade their towels, sandpaper is nicer.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r251258456-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>251258456</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>It works if you're a cheap, no frills kind of person</t>
+  </si>
+  <si>
+    <t>I was able to book a queen room at the last minute for a trip to Disneyland for New Years Eve. For it being NYE, I secured a decent price. Even before I checked in, I was provided with some really good customer service. I had called at around 3PM on the day of my check in to let the manager, Rocio, know that I was planning to actually come around 2AM in the morning. She noted it down on my reservation so when 2AM came around and I got to the hotel to check in, everything went smoothly. This hotel is about a 15 minute drive away from Disneyland, and it's pretty convenient if you have your own car to get to the parks and don't mind the drive. The location is right off Highway 5, and near some fast food restaurants and gas stations. I'm sure there's a Walmart in the nearby vicinity, but as I didn't feel the need to purchase groceries, I didn't really get to explore any other nearby surroundings. The area isn't as bad during the day, but at night, it does seem a bit sketchy, especially for myself as I was a solo traveler. Their hotel has an interesting set-up; their buildings are two separate buildings with their own lots. Kind of weird, but whatever works, I guess! The room I had was pretty decent. It featured a microwave and a fridge, which...I was able to book a queen room at the last minute for a trip to Disneyland for New Years Eve. For it being NYE, I secured a decent price. Even before I checked in, I was provided with some really good customer service. I had called at around 3PM on the day of my check in to let the manager, Rocio, know that I was planning to actually come around 2AM in the morning. She noted it down on my reservation so when 2AM came around and I got to the hotel to check in, everything went smoothly. This hotel is about a 15 minute drive away from Disneyland, and it's pretty convenient if you have your own car to get to the parks and don't mind the drive. The location is right off Highway 5, and near some fast food restaurants and gas stations. I'm sure there's a Walmart in the nearby vicinity, but as I didn't feel the need to purchase groceries, I didn't really get to explore any other nearby surroundings. The area isn't as bad during the day, but at night, it does seem a bit sketchy, especially for myself as I was a solo traveler. Their hotel has an interesting set-up; their buildings are two separate buildings with their own lots. Kind of weird, but whatever works, I guess! The room I had was pretty decent. It featured a microwave and a fridge, which was awesome. No coffee maker, but not a biggie as I don't drink coffee. The bathroom and shower were clean. The water pressure wasn't as great in the shower as it was in the sink, or the toilet for that matter. The toilet was super scary whenever it was flushed and it sounded like a monster. The bed was like any other typical bed you get for a hotel in the price range. But seeing as I would spent 12+ hours out in the parks, the bed was the least of my worries. There was a wide flat screen TV set up across the bed and it had some decent channels. I was disappointed that I didn't get the Disney channel in my room! My room did feel cold most of the time, so I usually kept the heater on around 70 degrees whenever I was in there. Internet wifi was free and I had no issues being connected to do any work that I needed to do. Overall, I'd stay here again. The two times I've stayed here I've had a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I was able to book a queen room at the last minute for a trip to Disneyland for New Years Eve. For it being NYE, I secured a decent price. Even before I checked in, I was provided with some really good customer service. I had called at around 3PM on the day of my check in to let the manager, Rocio, know that I was planning to actually come around 2AM in the morning. She noted it down on my reservation so when 2AM came around and I got to the hotel to check in, everything went smoothly. This hotel is about a 15 minute drive away from Disneyland, and it's pretty convenient if you have your own car to get to the parks and don't mind the drive. The location is right off Highway 5, and near some fast food restaurants and gas stations. I'm sure there's a Walmart in the nearby vicinity, but as I didn't feel the need to purchase groceries, I didn't really get to explore any other nearby surroundings. The area isn't as bad during the day, but at night, it does seem a bit sketchy, especially for myself as I was a solo traveler. Their hotel has an interesting set-up; their buildings are two separate buildings with their own lots. Kind of weird, but whatever works, I guess! The room I had was pretty decent. It featured a microwave and a fridge, which...I was able to book a queen room at the last minute for a trip to Disneyland for New Years Eve. For it being NYE, I secured a decent price. Even before I checked in, I was provided with some really good customer service. I had called at around 3PM on the day of my check in to let the manager, Rocio, know that I was planning to actually come around 2AM in the morning. She noted it down on my reservation so when 2AM came around and I got to the hotel to check in, everything went smoothly. This hotel is about a 15 minute drive away from Disneyland, and it's pretty convenient if you have your own car to get to the parks and don't mind the drive. The location is right off Highway 5, and near some fast food restaurants and gas stations. I'm sure there's a Walmart in the nearby vicinity, but as I didn't feel the need to purchase groceries, I didn't really get to explore any other nearby surroundings. The area isn't as bad during the day, but at night, it does seem a bit sketchy, especially for myself as I was a solo traveler. Their hotel has an interesting set-up; their buildings are two separate buildings with their own lots. Kind of weird, but whatever works, I guess! The room I had was pretty decent. It featured a microwave and a fridge, which was awesome. No coffee maker, but not a biggie as I don't drink coffee. The bathroom and shower were clean. The water pressure wasn't as great in the shower as it was in the sink, or the toilet for that matter. The toilet was super scary whenever it was flushed and it sounded like a monster. The bed was like any other typical bed you get for a hotel in the price range. But seeing as I would spent 12+ hours out in the parks, the bed was the least of my worries. There was a wide flat screen TV set up across the bed and it had some decent channels. I was disappointed that I didn't get the Disney channel in my room! My room did feel cold most of the time, so I usually kept the heater on around 70 degrees whenever I was in there. Internet wifi was free and I had no issues being connected to do any work that I needed to do. Overall, I'd stay here again. The two times I've stayed here I've had a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r235394998-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>235394998</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>I called your office, left the hotel. I want my money back. the rooms sheet smelled like sex and sweat. Two of the staff were deciding how they were going to call of the next day discussing how overworked they were. I would not recommend anyone stay there..its worse than Calcutta-its like you walked into a third world country the check in staff are old, bitter and cranky. I thought it was family owned..its as trashy as you can get. very disappointed this was even recommended from Expedia..when i informed Expedia staff the did nothing and very dismissive. Look like drug dealers and hookers hang out there.  RUN!!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r228221749-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>228221749</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>not bad older hotel</t>
+  </si>
+  <si>
+    <t>I stayed here last night on a business trip.  The room was older but clean.  There's a large flat screen TV, fridge, and microwave in the room.  The WiFi is a bit slow.  There are 7-8 restaurants nearby with a Denny's next door.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r224137042-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>224137042</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Manager Rocio is a bitter Mexican lady with no respect!!</t>
+  </si>
+  <si>
+    <t>I had a lot of trouble with this place. Bugs, thugs, riffraff, meth heads and that wasn't the worst. The tv does not work and when speaking to the pretend manager Rocio I have come to find out she is a rude bitter lady with no respect or customer service. I think she should be fired. She curses and can't even speak without raising her voice. I have reported her to corp. and I have asked for my money back as this is the worst hotel I have ever stayed!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r184926927-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>184926927</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>Great place for long term stay!</t>
+  </si>
+  <si>
+    <t>I've been staying at the Key Inn for well over a year.The staff here is always friendly and courteous, and treat you like family. The rates are the best south of Anaheim, especially considering the rooms have 37" flat screen TV's. The rooms are clean, the landscape is beautiful, and there is a pool for both buildings.All in all, this is a great hotel and I would tell anyone who asked to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kimberly R, Manager at Key Inn, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>I've been staying at the Key Inn for well over a year.The staff here is always friendly and courteous, and treat you like family. The rates are the best south of Anaheim, especially considering the rooms have 37" flat screen TV's. The rooms are clean, the landscape is beautiful, and there is a pool for both buildings.All in all, this is a great hotel and I would tell anyone who asked to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r121427162-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>121427162</t>
+  </si>
+  <si>
+    <t>12/05/2011</t>
+  </si>
+  <si>
+    <t>Hidden Jewel in OC!</t>
+  </si>
+  <si>
+    <t>OMG! This is a hidden jewel in Orange County! No frills just a super clean and decent room. Complimentary internet and parking and right off the freeway. My boyfriend and I were sold! Definitely the place to stay if ever in the OC!</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r120227785-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>120227785</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>If you're not in Anaheim, it's worth the price</t>
+  </si>
+  <si>
+    <t>This hotel is conveniently just off the freeway, close to many eating places, and pretty centrally located to major attractions. The rooms are pretty basic (I do take the bedspread off the bed--they look a bit questionable) but overall, very clean and quiet. I've stayed here 4 times and have never had a problem.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r116527025-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>116527025</t>
+  </si>
+  <si>
+    <t>08/10/2011</t>
+  </si>
+  <si>
+    <t>Cheap, small rooms, but great rates.</t>
+  </si>
+  <si>
+    <t>No ammenities, but the staff are quite polite. Most rooms u can park right in front of ur door. Cable is limited, and the rooms are very small, but they'll do for an overnight stay or road break. One thing that kept happening to me, and I think it was just bad luck, someone kept calling our room at odd hours. Id answer, they wouldn't say anything then hang up.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r105085152-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>105085152</t>
+  </si>
+  <si>
+    <t>04/22/2011</t>
+  </si>
+  <si>
+    <t>Helpful staff clean rooms</t>
+  </si>
+  <si>
+    <t>The rooms are clean and the staff is very good. Near disneyland and orange county airport. Plenty of good places to dine.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r104701336-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>104701336</t>
+  </si>
+  <si>
+    <t>04/19/2011</t>
+  </si>
+  <si>
+    <t>Clean, affordable, and friendly/professional staff.</t>
+  </si>
+  <si>
+    <t>I am a professional/business owner who resides in LA county, and with rental properties in Orange, and San Diego counties. One who travels(for business) to and fro the north and south of California. I have always found this place a great  refuge to relax. This place is clean, affordable, and with cordial staff, and professional management. Considering today's high fuel prices, and snarl traffic of LA county, I found it more feasible to stay at Key Inn when I am in town.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r60855932-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>60855932</t>
+  </si>
+  <si>
+    <t>04/09/2010</t>
+  </si>
+  <si>
+    <t>VERY RUDE STAFF, loud rooms, prostitution &amp; drugs abound here!</t>
+  </si>
+  <si>
+    <t>This motel is sheer hell on wheels. Starting with the staff of very rude &amp; condescending women. The night clerk is a nightmare to deal with. She tossed my credit card down the counter &amp; it fell on the floor: she snickered like an evil witch and did not apologize. The morning clerks weren't any better. I complained about the prostitution &amp; partying going on upstairs and was told if I didn't like it I could leave---after having paid for a full week and they denied refunds. When I called the night clerk about the same prostitute upstairs, night clerk hung up on me.  It's cheap but it's really not worth it. Parties &amp; drug deals between rooms every night. Then there's the TV's that hit you from every direction: after 11pm &amp; until 4:00am TV's start blaring from all directions &amp; the walls are thin as paper. DON'T EXPECT TO GET ANY SLEEP HERE! The staff looks like escapees from a mental institution. Their attitude is much worse than I can begin to explain. If the partying made my stay hell, the clerks were the straw on the camel's back. I do not recommend this to anyone; I might send my worst enemy and my mother in law here, that's about it. If you're a drug dealer or a prostitute then this is the place for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>This motel is sheer hell on wheels. Starting with the staff of very rude &amp; condescending women. The night clerk is a nightmare to deal with. She tossed my credit card down the counter &amp; it fell on the floor: she snickered like an evil witch and did not apologize. The morning clerks weren't any better. I complained about the prostitution &amp; partying going on upstairs and was told if I didn't like it I could leave---after having paid for a full week and they denied refunds. When I called the night clerk about the same prostitute upstairs, night clerk hung up on me.  It's cheap but it's really not worth it. Parties &amp; drug deals between rooms every night. Then there's the TV's that hit you from every direction: after 11pm &amp; until 4:00am TV's start blaring from all directions &amp; the walls are thin as paper. DON'T EXPECT TO GET ANY SLEEP HERE! The staff looks like escapees from a mental institution. Their attitude is much worse than I can begin to explain. If the partying made my stay hell, the clerks were the straw on the camel's back. I do not recommend this to anyone; I might send my worst enemy and my mother in law here, that's about it. If you're a drug dealer or a prostitute then this is the place for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r45522404-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>45522404</t>
+  </si>
+  <si>
+    <t>09/30/2009</t>
+  </si>
+  <si>
+    <t>Great Hotel very nice people</t>
+  </si>
+  <si>
+    <t>Loved the hotel very nice workers. Very clean I would recommend this to anyone going solo or with family.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r43434121-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>43434121</t>
+  </si>
+  <si>
+    <t>09/21/2009</t>
+  </si>
+  <si>
+    <t>A Tustin Landmark</t>
+  </si>
+  <si>
+    <t>Upon my recent return to Tustin, I needed affordable extended stay housing for my son and I. Reluctantly, I checked in to the Key Inn. I say reluctantly because as a 40+ year resident of Tustin, the Key Inn did not have the best reputation in years past. however, I am confident and comfortable in saying that this bad reputation can now be put to rest.
+While the Key Inn is known for low budget lodging, I have experienced a high level of quality, friendly and present customer service from the staff at the front desk, maintenance, housekeeping and the GM himself.
+My room is cleaned and stocked daily with fresh linens, towels, soaps, shampoos, lotions etc...The grounds are well kept and well lit at night. The guests come from all over and for many reasons and all those I have met are friendly and courteous.
+I am particularly satisfied with the location of my room located in the courtyard which allows me to sit right outside my room and work on my lap top thanks to the free Wifi Service, or read, write, eat and even watch my TV. The freeway noise is there however once I close my door, I cannot hear it at all.
+As an extended stay visitor, having access to a mini fridge and microwave has made it all the more convenient and comfortable however, there are plenty of restaurants, stores and every other type...Upon my recent return to Tustin, I needed affordable extended stay housing for my son and I. Reluctantly, I checked in to the Key Inn. I say reluctantly because as a 40+ year resident of Tustin, the Key Inn did not have the best reputation in years past. however, I am confident and comfortable in saying that this bad reputation can now be put to rest.While the Key Inn is known for low budget lodging, I have experienced a high level of quality, friendly and present customer service from the staff at the front desk, maintenance, housekeeping and the GM himself.My room is cleaned and stocked daily with fresh linens, towels, soaps, shampoos, lotions etc...The grounds are well kept and well lit at night. The guests come from all over and for many reasons and all those I have met are friendly and courteous.I am particularly satisfied with the location of my room located in the courtyard which allows me to sit right outside my room and work on my lap top thanks to the free Wifi Service, or read, write, eat and even watch my TV. The freeway noise is there however once I close my door, I cannot hear it at all.As an extended stay visitor, having access to a mini fridge and microwave has made it all the more convenient and comfortable however, there are plenty of restaurants, stores and every other type of business within minutes on foot. You name it, you need it, it's all right here.Other than filling out the occasional comment card at a restaurant or bank, I have never written a review good or bad. As a proud native Tustin Tiller, I feel the Key Inn deserves to be recognized and congratulated for their outstanding efforts and success in restoring and redeeming this hometown landmark's good reputation.Thank you Mr. Robles and all the Key Inn staff for making our stay here so much more comfortable and nicer than anticipated!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>Upon my recent return to Tustin, I needed affordable extended stay housing for my son and I. Reluctantly, I checked in to the Key Inn. I say reluctantly because as a 40+ year resident of Tustin, the Key Inn did not have the best reputation in years past. however, I am confident and comfortable in saying that this bad reputation can now be put to rest.
+While the Key Inn is known for low budget lodging, I have experienced a high level of quality, friendly and present customer service from the staff at the front desk, maintenance, housekeeping and the GM himself.
+My room is cleaned and stocked daily with fresh linens, towels, soaps, shampoos, lotions etc...The grounds are well kept and well lit at night. The guests come from all over and for many reasons and all those I have met are friendly and courteous.
+I am particularly satisfied with the location of my room located in the courtyard which allows me to sit right outside my room and work on my lap top thanks to the free Wifi Service, or read, write, eat and even watch my TV. The freeway noise is there however once I close my door, I cannot hear it at all.
+As an extended stay visitor, having access to a mini fridge and microwave has made it all the more convenient and comfortable however, there are plenty of restaurants, stores and every other type...Upon my recent return to Tustin, I needed affordable extended stay housing for my son and I. Reluctantly, I checked in to the Key Inn. I say reluctantly because as a 40+ year resident of Tustin, the Key Inn did not have the best reputation in years past. however, I am confident and comfortable in saying that this bad reputation can now be put to rest.While the Key Inn is known for low budget lodging, I have experienced a high level of quality, friendly and present customer service from the staff at the front desk, maintenance, housekeeping and the GM himself.My room is cleaned and stocked daily with fresh linens, towels, soaps, shampoos, lotions etc...The grounds are well kept and well lit at night. The guests come from all over and for many reasons and all those I have met are friendly and courteous.I am particularly satisfied with the location of my room located in the courtyard which allows me to sit right outside my room and work on my lap top thanks to the free Wifi Service, or read, write, eat and even watch my TV. The freeway noise is there however once I close my door, I cannot hear it at all.As an extended stay visitor, having access to a mini fridge and microwave has made it all the more convenient and comfortable however, there are plenty of restaurants, stores and every other type of business within minutes on foot. You name it, you need it, it's all right here.Other than filling out the occasional comment card at a restaurant or bank, I have never written a review good or bad. As a proud native Tustin Tiller, I feel the Key Inn deserves to be recognized and congratulated for their outstanding efforts and success in restoring and redeeming this hometown landmark's good reputation.Thank you Mr. Robles and all the Key Inn staff for making our stay here so much more comfortable and nicer than anticipated!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r42855073-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>42855073</t>
+  </si>
+  <si>
+    <t>09/19/2009</t>
+  </si>
+  <si>
+    <t>AMASING  .  .  .  !</t>
+  </si>
+  <si>
+    <t>OK The meids, the manager, at the chekin, wow, just frendly people, they make just the grate dial, the rooms are clean, The service in general is amasing, Just the comfortable, place to spend, your vacations, Just next to everything, frwy, shopping centers, just nameit, and is very close. 2 pools very clean,</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r26933567-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>26933567</t>
+  </si>
+  <si>
+    <t>03/27/2009</t>
+  </si>
+  <si>
+    <t>Not expect too much</t>
+  </si>
+  <si>
+    <t>We stayed one night. room was clean but beds were not very comfortable. Ok for overnight stay and do no expect much.  The hotel offers free internet and parkingMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>AR_KEYINN, GENERAL MANAGER at Key Inn, responded to this reviewResponded August 14, 2009</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2009</t>
+  </si>
+  <si>
+    <t>We stayed one night. room was clean but beds were not very comfortable. Ok for overnight stay and do no expect much.  The hotel offers free internet and parkingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r17687814-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>17687814</t>
+  </si>
+  <si>
+    <t>07/09/2008</t>
+  </si>
+  <si>
+    <t>Well worth the price</t>
+  </si>
+  <si>
+    <t>Well worth the price. This place is nothing like the reviews in 2007. I have stayed here over four weeks and will be returning. For the price, I could not ask for better. The grounds were always clean and my room cleaned daily. The General Manager was working diligently to upgrade the rooms and seemed to care about the space and service delivered. My room was child proof (furniture rounded corners - added bonus) with new carpet. The maintenance crew, very friendly and respectful. Reception had several staff members working, I chose to work with the same staff member whom I thought was the friendliest. I was a little nervous at first of the location since it was not with all the other hotels. I was more nervous because of the bad reviews. I am relieved to say, I have been here over a month and have observed nothing strange, felt safe, and have had a pleasant stay. I hope others have had a good experience as I have and take the time to write a positive review. Although this place does not offer food or shuttle service, the price break is low enough to order breakfast as you like at Dennys located in the same lot and/or have a rental car compared to higher priced hotels with simple continental breakfast and shuttle service where you have to wait and travel with others. Good for if you are looking for...Well worth the price. This place is nothing like the reviews in 2007. I have stayed here over four weeks and will be returning. For the price, I could not ask for better. The grounds were always clean and my room cleaned daily. The General Manager was working diligently to upgrade the rooms and seemed to care about the space and service delivered. My room was child proof (furniture rounded corners - added bonus) with new carpet. The maintenance crew, very friendly and respectful. Reception had several staff members working, I chose to work with the same staff member whom I thought was the friendliest. I was a little nervous at first of the location since it was not with all the other hotels. I was more nervous because of the bad reviews. I am relieved to say, I have been here over a month and have observed nothing strange, felt safe, and have had a pleasant stay. I hope others have had a good experience as I have and take the time to write a positive review. Although this place does not offer food or shuttle service, the price break is low enough to order breakfast as you like at Dennys located in the same lot and/or have a rental car compared to higher priced hotels with simple continental breakfast and shuttle service where you have to wait and travel with others. Good for if you are looking for a basic room and want to save money to have your own car or order food, vs. microwaved continental breakfasts... Clientele is diverse. The bad reviews of the past posted portrays a very negative scene and not reflective of how it is today, under this new manager. Definitely for the price worth trying out, you can always change if you are not satisfied. Additional bonus, we watched the fireworks from in front of the hotel and easily retired to bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>Well worth the price. This place is nothing like the reviews in 2007. I have stayed here over four weeks and will be returning. For the price, I could not ask for better. The grounds were always clean and my room cleaned daily. The General Manager was working diligently to upgrade the rooms and seemed to care about the space and service delivered. My room was child proof (furniture rounded corners - added bonus) with new carpet. The maintenance crew, very friendly and respectful. Reception had several staff members working, I chose to work with the same staff member whom I thought was the friendliest. I was a little nervous at first of the location since it was not with all the other hotels. I was more nervous because of the bad reviews. I am relieved to say, I have been here over a month and have observed nothing strange, felt safe, and have had a pleasant stay. I hope others have had a good experience as I have and take the time to write a positive review. Although this place does not offer food or shuttle service, the price break is low enough to order breakfast as you like at Dennys located in the same lot and/or have a rental car compared to higher priced hotels with simple continental breakfast and shuttle service where you have to wait and travel with others. Good for if you are looking for...Well worth the price. This place is nothing like the reviews in 2007. I have stayed here over four weeks and will be returning. For the price, I could not ask for better. The grounds were always clean and my room cleaned daily. The General Manager was working diligently to upgrade the rooms and seemed to care about the space and service delivered. My room was child proof (furniture rounded corners - added bonus) with new carpet. The maintenance crew, very friendly and respectful. Reception had several staff members working, I chose to work with the same staff member whom I thought was the friendliest. I was a little nervous at first of the location since it was not with all the other hotels. I was more nervous because of the bad reviews. I am relieved to say, I have been here over a month and have observed nothing strange, felt safe, and have had a pleasant stay. I hope others have had a good experience as I have and take the time to write a positive review. Although this place does not offer food or shuttle service, the price break is low enough to order breakfast as you like at Dennys located in the same lot and/or have a rental car compared to higher priced hotels with simple continental breakfast and shuttle service where you have to wait and travel with others. Good for if you are looking for a basic room and want to save money to have your own car or order food, vs. microwaved continental breakfasts... Clientele is diverse. The bad reviews of the past posted portrays a very negative scene and not reflective of how it is today, under this new manager. Definitely for the price worth trying out, you can always change if you are not satisfied. Additional bonus, we watched the fireworks from in front of the hotel and easily retired to bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r14126122-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>14126122</t>
+  </si>
+  <si>
+    <t>03/07/2008</t>
+  </si>
+  <si>
+    <t>even she likes it</t>
+  </si>
+  <si>
+    <t>Hello . We have stayed at the Key inn a few times in the last 6 months . It is not a high priced hotel but well worth the money spent . We have stayed in years past and it was not very good at all. Something changed reciently and has got allot better . With the 5 freeway close and Dennys right there it is very  convenient .</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r8471163-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>8471163</t>
+  </si>
+  <si>
+    <t>08/21/2007</t>
+  </si>
+  <si>
+    <t>There has GOT to be a better place to stay.</t>
+  </si>
+  <si>
+    <t>This place was abominable.  The first Non-Smoking room they tried to give us was utterly uninhabitable...and it sure seemed as if someone had been smoking (a lot) in the room within the past hour.The second room they gave us was BARELY habitable...and had a totally and completely non-functional air conditioning unit.  The furniture, fixtures and equipment would charitably be described as "tired."  The room was loud.If there were something positive to say about the place I would.OK:  it was the only place I could find availability within 20 miles of where I had to be.All things considered maybe I should have stayed at home.MAG</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r8092551-Key_Inn-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>8092551</t>
+  </si>
+  <si>
+    <t>07/09/2007</t>
+  </si>
+  <si>
+    <t>Just Don't do it.</t>
+  </si>
+  <si>
+    <t>(1) Pros      Close to Interstate 5.  Although it was right next to Freeway, room was quiet.  (2) Cons      My son's Polo Shirt and pants were missing and the staff did not do anything but say that their staff would not touch customers' stuff.  My wife's one-piece cloth were missing also.  Again, they did not do anything.      Room carpet was so dirty that we had to wear shoes ALL the time.       According to their own web-site, the rooms had kitchen but it was mis-leading.  Some rooms had kitchen.   Here is link to there web-stie:   [--]</t>
+  </si>
+  <si>
+    <t>July 2007</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1410,2370 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>153</v>
+      </c>
+      <c r="X17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>204</v>
+      </c>
+      <c r="X25" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>212</v>
+      </c>
+      <c r="O26" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" t="s">
+        <v>215</v>
+      </c>
+      <c r="K27" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s">
+        <v>217</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O27" t="s">
+        <v>127</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" t="s">
+        <v>223</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>236</v>
+      </c>
+      <c r="J31" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" t="s">
+        <v>239</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>240</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>253</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>253</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>261</v>
+      </c>
+      <c r="J35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" t="s">
+        <v>127</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>266</v>
+      </c>
+      <c r="X35" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L36" t="s">
+        <v>273</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>274</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" t="s">
+        <v>278</v>
+      </c>
+      <c r="K37" t="s">
+        <v>279</v>
+      </c>
+      <c r="L37" t="s">
+        <v>280</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>281</v>
+      </c>
+      <c r="O37" t="s">
+        <v>127</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>283</v>
+      </c>
+      <c r="J38" t="s">
+        <v>284</v>
+      </c>
+      <c r="K38" t="s">
+        <v>285</v>
+      </c>
+      <c r="L38" t="s">
+        <v>286</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>287</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>289</v>
+      </c>
+      <c r="J39" t="s">
+        <v>290</v>
+      </c>
+      <c r="K39" t="s">
+        <v>291</v>
+      </c>
+      <c r="L39" t="s">
+        <v>292</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>293</v>
+      </c>
+      <c r="O39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_450.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_450.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>JustBren</t>
+  </si>
+  <si>
     <t>07/06/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>This was the nastiest place we have ever been.YUKK ... We requested non-smoking, it was dingy, smoky, stinky, the bed had a plastic wrap on it.  So gross ... we never took our shoes off.We think it's a short term (maybe long term) rental place for transients.We did not feel safe, but we were only staying one night.  We had already paid and we were on a budget and no extra money for a new hotel. FYI: The office was 2-3 blocks away in a completely different property.DO NOT STAY HERE!More</t>
   </si>
   <si>
+    <t>Siddharth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r543737452-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>W7021LUdanielf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r526386199-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>GiuseppeGuarneri</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r495755021-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Nichole H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r488299555-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>It's a fairly priced places to stay, conveniently located right off the 5 fwy at Redhill with a Dennys within 500 yards and right behind a little strip mall with a big lots and coin laundry mat and smoke shop. The place has water bugs (cockroaches without the fear of lights) near the plantation on the bottom floors but upstairs I had minimal bug sightings. The staff was friendly and moved me from room to room and offered assistance from their staff which was appreciated. Overall the staff and their willing to help and cheerful greetings made the stay worthwhile but it's a little busy after dark with questionable characters - but they do have a security man that does a fair job at running off loiterers. Biggest complaint is they do not have a deadbolt or some sort of latch above the door handle out of reach or children therefore my 2 year old daughter could easily open the door and unlock it and run out- and did so more than once. Something should be added. It's a cheap and easy fix. More</t>
   </si>
   <si>
+    <t>Carlos T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r487086231-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>Family trip to Disneyland and CA Adventure. Easy to get to off the 5 with plenty of restaurants a walk away. Area is sketchy but no problem for my family. First thing we noticed was the back battery plate of the TV remote was missing so batteries kept popping out. TV channels were out so we called the front desk and first time we met Chris, the handyman/maintenance. He knew exactly what to do meaning it happens often. TV worked for the night, I saw what he did so I fixed it the next few times. My 2 year old wanted to eat microwavable noodles, I put them in and noticed the inside of the microwave was burnt. Called front desk they sent Chris with a brand new one still unopened in the box. Chris set it up and left, I placed the noodles in and set the timer. The microwave started and after a few minutes I checked on them, timer hadn't started but the plate was rotating and light was on as if was cooking. I opened the microwave up and checked the noodles, still cold. I reset the microwave timer, and closed the door, but the microwave started back up as it was before without the timer being set up. I tried fixing it by unplugging it but no luck. The front desk was called once again. Chris was back saw and I explained what had happened,...Family trip to Disneyland and CA Adventure. Easy to get to off the 5 with plenty of restaurants a walk away. Area is sketchy but no problem for my family. First thing we noticed was the back battery plate of the TV remote was missing so batteries kept popping out. TV channels were out so we called the front desk and first time we met Chris, the handyman/maintenance. He knew exactly what to do meaning it happens often. TV worked for the night, I saw what he did so I fixed it the next few times. My 2 year old wanted to eat microwavable noodles, I put them in and noticed the inside of the microwave was burnt. Called front desk they sent Chris with a brand new one still unopened in the box. Chris set it up and left, I placed the noodles in and set the timer. The microwave started and after a few minutes I checked on them, timer hadn't started but the plate was rotating and light was on as if was cooking. I opened the microwave up and checked the noodles, still cold. I reset the microwave timer, and closed the door, but the microwave started back up as it was before without the timer being set up. I tried fixing it by unplugging it but no luck. The front desk was called once again. Chris was back saw and I explained what had happened, it was determined it was a bad new microwave, the he would leave a note for the manager of the problem and explained the are no other microwaves. He realized the only other microwave he had was the one in the employee break room. He quickly went to test it and brought it to the room. Chris was very helpful. ... The other problems were; there are no TV channels listing sheet so it's channel surfing until you find something. There is no map of the layout of the motel so I had to go on a exploration trip to find the ice machine, didn't try to continue to see the pool(if there is a pool?)at midnight. After a long day at Disneyland I gave my son a shower, and I took one too, after eating and placing my son next to fiancee in the bed for the night I noticed the bottom of his feet were black. I was mad since he always gets dirty outside but I realize he didn't go outside, I looked at my feet too, black. Looked like the carpet hadn't been cleaned for a while. Socks required for the rest of the stay. ... Bed was nothing special, sheets were clean but small for two adults in bed. Would of rated 1 point/terrible if not for maintenance being there. More</t>
   </si>
   <si>
+    <t>Connie I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r466166630-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>We made the mistake of booking 1 Thursday night here when we needed to have our house tented for termites. We were new to the area, and our house is in a nice neighborhood about 1 mile away.  We thought it would be most convenient to take the kids to  school from here, then we planned to go out of town after school ended Friday afternoon. MISTAKE. This place is a dump. Totally seedy. Totally sketchy people here. The room was GROSS, with thin walls and who knows what kooties on the surfaces. I've never regretted a hotel decision more and wished I would have booked at the Marriott just 2 miles away.If you're looking for a dumpy motel because you're despondent or depressed, this is an appropriate venue from which to drown your sorrows. Heck, it might make you feel better about life, and you'll go home with new resolve and hope in the morning.  But this is NOT a place to bring your spouse and children for a decent stay.More</t>
   </si>
   <si>
+    <t>Marti_R_Cortez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r464289488-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>akewan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r464073133-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>There were 3 of us, one adult 2 kids. We were given 1 king bed for the price of $134 for 2 nights, tax fees included. Super cheap but it came with uncomfortable stay. My son got his allergy back that triggered his asthma attack on the first night. It means the place is dusty. The fan the heater/AC it too strong, even the lowest setting. I was afraid it circulated the dust in the room in the air. The bathroom is renovated but the shower got very steamy, until the whole floor got wet the whole time, your feet got wet every time you enter the bathroom.The soap crumbles when you open the wrapper. The house keeping did not do a good job. They left water marks, wet area on the table.More</t>
   </si>
   <si>
+    <t>Heshie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r443184947-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Grammy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r409011006-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Hope D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r394554354-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -405,6 +441,9 @@
     <t>My boyfriend and I came to LA for a week for a vacation and the place that we were staying before we got to key inn didn't work out and while being tight on money I searched places with a AAA discount and came across key inn. The front desk staff was very nice and easy to work with. We got our room key and everything was great. Until we turned the fan on and the room began to smell like urine. Once we turned the A/C on the smell went away. Then after sleeping for a night the bottom sheet came down and there were 2 huge urine stains on the mattress. Then the night before we left the neighbors next to us were up all night fighting and banging on the walls. If I had more money I would not have ever stayed at this place.More</t>
   </si>
   <si>
+    <t>Billi R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r382278001-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -423,6 +462,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Patrick B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r374962739-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -441,6 +483,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>HARINCT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r362707055-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -459,6 +504,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>FelixDoval</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r321008740-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -484,6 +532,9 @@
   </si>
   <si>
     <t>This hotel has a deceiving exterior appearance.  The rooms say remodeled but the rug is old, dirty, and smells.  We had to fog our room because we kept finding ants and spiders in random corners.  We also ended up checking out and asking for a refund because we would get attacked by huge flying roaches every night as we would try to get into our room.  Staff had a very poor attitude and really didn't care and even said, "Well, they're Not inside the room, they're outside" and didn't do anything to correct the issue. AC's also shut off and on all night and have no feature for constant fan.More</t>
+  </si>
+  <si>
+    <t>Anna T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r304223170-Key_Inn-Tustin_California.html</t>
@@ -508,6 +559,9 @@
 When I checked out, I was given a refund: For the Days that I had Paid Ahead of Time for, but was not willing to use as I had enough. This place should be ashamed: They have these cards at the check-in desk and I am adding my photo's here, for you, as it is in Total Contradiction to what they provide....Thanks Yelp, but even when I spoke with the Owner/Manager named: George, he and his staff still chose to do "Nothing" to bring a positive resolution to a less than pleasant stay. I stayed here for a total of Nine Days. The first room was alright, considering that I had to get some Carpet orderizer. The second and third room, before my early check out from my planned Weekly rate that I paid had its issues too.Cockroaches and broken bathroom items, such as the Soap Dish in the Shower area of a Disabled accommodated bathroom. I have the pictures to prove it. After my second day here there were numerous issues such as: People having a party, with excessive noise well after 11:00 pm and that is outside of the rooms in the promenade area. Plus! Other hotel guests that would be stomping excessively, as well as Loudly playing their television where if I had my television volume on 30 decibels..., that was not enough in order to shut out the distracted sounds from other guests rooms. When I checked out, I was given a refund: For the Days that I had Paid Ahead of Time for, but was not willing to use as I had enough. This place should be ashamed: They have these cards at the check-in desk and I am adding my photo's here, for you, as it is in Total Contradiction to what they provide. I had hoped that the Manager would've contacted me by now, but no he still hasn't.More</t>
   </si>
   <si>
+    <t>Clara L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r300696849-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -529,6 +583,9 @@
     <t>This was the worst hotel experience I've ever had.  Upon entering, the door lock kept getting stuck and every time we entered we had to repeatedly reinsert the card until the door would open.  A lamp was broken and did not work.  My kids wanted to swim in the pool and did so for about ten minutes, when some adults decided it was time to drink and smoke weed by the pool, with no regard of who was around and the pool was located right in front of the office and nobody would say anything to them!  But the worst part was that at 1 in the morning, there was a party going on upstairs and they were loud and drinking.  I called to complain and asked if security would tell them to stop.  Two hours later, the party continued and my family was unable to sleep untl 4 in the morning, when I called again and asked them that if they did not stop this party, I would take matters into my own hands and call the police.  Finally, about five minutes later, it finally got quiet.  We should have never been put through that.  My family were on vacation and this was not what we expected to pay for.  At checkout, we were not charged the rate that we had secured over the phone.  Very upsetting to have wasted our time and money here.More</t>
   </si>
   <si>
+    <t>Verdis U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r261264440-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -547,6 +604,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>liannab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r251258456-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -568,6 +628,9 @@
     <t>I was able to book a queen room at the last minute for a trip to Disneyland for New Years Eve. For it being NYE, I secured a decent price. Even before I checked in, I was provided with some really good customer service. I had called at around 3PM on the day of my check in to let the manager, Rocio, know that I was planning to actually come around 2AM in the morning. She noted it down on my reservation so when 2AM came around and I got to the hotel to check in, everything went smoothly. This hotel is about a 15 minute drive away from Disneyland, and it's pretty convenient if you have your own car to get to the parks and don't mind the drive. The location is right off Highway 5, and near some fast food restaurants and gas stations. I'm sure there's a Walmart in the nearby vicinity, but as I didn't feel the need to purchase groceries, I didn't really get to explore any other nearby surroundings. The area isn't as bad during the day, but at night, it does seem a bit sketchy, especially for myself as I was a solo traveler. Their hotel has an interesting set-up; their buildings are two separate buildings with their own lots. Kind of weird, but whatever works, I guess! The room I had was pretty decent. It featured a microwave and a fridge, which...I was able to book a queen room at the last minute for a trip to Disneyland for New Years Eve. For it being NYE, I secured a decent price. Even before I checked in, I was provided with some really good customer service. I had called at around 3PM on the day of my check in to let the manager, Rocio, know that I was planning to actually come around 2AM in the morning. She noted it down on my reservation so when 2AM came around and I got to the hotel to check in, everything went smoothly. This hotel is about a 15 minute drive away from Disneyland, and it's pretty convenient if you have your own car to get to the parks and don't mind the drive. The location is right off Highway 5, and near some fast food restaurants and gas stations. I'm sure there's a Walmart in the nearby vicinity, but as I didn't feel the need to purchase groceries, I didn't really get to explore any other nearby surroundings. The area isn't as bad during the day, but at night, it does seem a bit sketchy, especially for myself as I was a solo traveler. Their hotel has an interesting set-up; their buildings are two separate buildings with their own lots. Kind of weird, but whatever works, I guess! The room I had was pretty decent. It featured a microwave and a fridge, which was awesome. No coffee maker, but not a biggie as I don't drink coffee. The bathroom and shower were clean. The water pressure wasn't as great in the shower as it was in the sink, or the toilet for that matter. The toilet was super scary whenever it was flushed and it sounded like a monster. The bed was like any other typical bed you get for a hotel in the price range. But seeing as I would spent 12+ hours out in the parks, the bed was the least of my worries. There was a wide flat screen TV set up across the bed and it had some decent channels. I was disappointed that I didn't get the Disney channel in my room! My room did feel cold most of the time, so I usually kept the heater on around 70 degrees whenever I was in there. Internet wifi was free and I had no issues being connected to do any work that I needed to do. Overall, I'd stay here again. The two times I've stayed here I've had a good experience.More</t>
   </si>
   <si>
+    <t>Linda K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r235394998-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -586,6 +649,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>osanida</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r228221749-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -604,6 +670,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Atikidagreat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r224137042-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -619,6 +688,9 @@
     <t>I had a lot of trouble with this place. Bugs, thugs, riffraff, meth heads and that wasn't the worst. The tv does not work and when speaking to the pretend manager Rocio I have come to find out she is a rude bitter lady with no respect or customer service. I think she should be fired. She curses and can't even speak without raising her voice. I have reported her to corp. and I have asked for my money back as this is the worst hotel I have ever stayed!</t>
   </si>
   <si>
+    <t>Joshman380</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r184926927-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -643,6 +715,9 @@
     <t>I've been staying at the Key Inn for well over a year.The staff here is always friendly and courteous, and treat you like family. The rates are the best south of Anaheim, especially considering the rooms have 37" flat screen TV's. The rooms are clean, the landscape is beautiful, and there is a pool for both buildings.All in all, this is a great hotel and I would tell anyone who asked to stay here.More</t>
   </si>
   <si>
+    <t>Chc H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r121427162-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -661,6 +736,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>hbgirl-forever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r120227785-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -679,6 +757,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>d3vilkitten</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r116527025-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -694,6 +775,9 @@
     <t>No ammenities, but the staff are quite polite. Most rooms u can park right in front of ur door. Cable is limited, and the rooms are very small, but they'll do for an overnight stay or road break. One thing that kept happening to me, and I think it was just bad luck, someone kept calling our room at odd hours. Id answer, they wouldn't say anything then hang up.</t>
   </si>
   <si>
+    <t>tobona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r105085152-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -709,6 +793,9 @@
     <t>The rooms are clean and the staff is very good. Near disneyland and orange county airport. Plenty of good places to dine.</t>
   </si>
   <si>
+    <t>Amir0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r104701336-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -727,6 +814,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>BernEGaunt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r60855932-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -748,6 +838,9 @@
     <t>This motel is sheer hell on wheels. Starting with the staff of very rude &amp; condescending women. The night clerk is a nightmare to deal with. She tossed my credit card down the counter &amp; it fell on the floor: she snickered like an evil witch and did not apologize. The morning clerks weren't any better. I complained about the prostitution &amp; partying going on upstairs and was told if I didn't like it I could leave---after having paid for a full week and they denied refunds. When I called the night clerk about the same prostitute upstairs, night clerk hung up on me.  It's cheap but it's really not worth it. Parties &amp; drug deals between rooms every night. Then there's the TV's that hit you from every direction: after 11pm &amp; until 4:00am TV's start blaring from all directions &amp; the walls are thin as paper. DON'T EXPECT TO GET ANY SLEEP HERE! The staff looks like escapees from a mental institution. Their attitude is much worse than I can begin to explain. If the partying made my stay hell, the clerks were the straw on the camel's back. I do not recommend this to anyone; I might send my worst enemy and my mother in law here, that's about it. If you're a drug dealer or a prostitute then this is the place for you.More</t>
   </si>
   <si>
+    <t>selma21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r45522404-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -764,6 +857,9 @@
   </si>
   <si>
     <t>June 2009</t>
+  </si>
+  <si>
+    <t>ItalyTustin</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r43434121-Key_Inn-Tustin_California.html</t>
@@ -795,6 +891,9 @@
 As an extended stay visitor, having access to a mini fridge and microwave has made it all the more convenient and comfortable however, there are plenty of restaurants, stores and every other type...Upon my recent return to Tustin, I needed affordable extended stay housing for my son and I. Reluctantly, I checked in to the Key Inn. I say reluctantly because as a 40+ year resident of Tustin, the Key Inn did not have the best reputation in years past. however, I am confident and comfortable in saying that this bad reputation can now be put to rest.While the Key Inn is known for low budget lodging, I have experienced a high level of quality, friendly and present customer service from the staff at the front desk, maintenance, housekeeping and the GM himself.My room is cleaned and stocked daily with fresh linens, towels, soaps, shampoos, lotions etc...The grounds are well kept and well lit at night. The guests come from all over and for many reasons and all those I have met are friendly and courteous.I am particularly satisfied with the location of my room located in the courtyard which allows me to sit right outside my room and work on my lap top thanks to the free Wifi Service, or read, write, eat and even watch my TV. The freeway noise is there however once I close my door, I cannot hear it at all.As an extended stay visitor, having access to a mini fridge and microwave has made it all the more convenient and comfortable however, there are plenty of restaurants, stores and every other type of business within minutes on foot. You name it, you need it, it's all right here.Other than filling out the occasional comment card at a restaurant or bank, I have never written a review good or bad. As a proud native Tustin Tiller, I feel the Key Inn deserves to be recognized and congratulated for their outstanding efforts and success in restoring and redeeming this hometown landmark's good reputation.Thank you Mr. Robles and all the Key Inn staff for making our stay here so much more comfortable and nicer than anticipated!!!More</t>
   </si>
   <si>
+    <t>anielu44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r42855073-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -810,6 +909,9 @@
     <t>OK The meids, the manager, at the chekin, wow, just frendly people, they make just the grate dial, the rooms are clean, The service in general is amasing, Just the comfortable, place to spend, your vacations, Just next to everything, frwy, shopping centers, just nameit, and is very close. 2 pools very clean,</t>
   </si>
   <si>
+    <t>travellers048</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r26933567-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -837,6 +939,9 @@
     <t>We stayed one night. room was clean but beds were not very comfortable. Ok for overnight stay and do no expect much.  The hotel offers free internet and parkingMore</t>
   </si>
   <si>
+    <t>wladjusted</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r17687814-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -858,6 +963,9 @@
     <t>Well worth the price. This place is nothing like the reviews in 2007. I have stayed here over four weeks and will be returning. For the price, I could not ask for better. The grounds were always clean and my room cleaned daily. The General Manager was working diligently to upgrade the rooms and seemed to care about the space and service delivered. My room was child proof (furniture rounded corners - added bonus) with new carpet. The maintenance crew, very friendly and respectful. Reception had several staff members working, I chose to work with the same staff member whom I thought was the friendliest. I was a little nervous at first of the location since it was not with all the other hotels. I was more nervous because of the bad reviews. I am relieved to say, I have been here over a month and have observed nothing strange, felt safe, and have had a pleasant stay. I hope others have had a good experience as I have and take the time to write a positive review. Although this place does not offer food or shuttle service, the price break is low enough to order breakfast as you like at Dennys located in the same lot and/or have a rental car compared to higher priced hotels with simple continental breakfast and shuttle service where you have to wait and travel with others. Good for if you are looking for...Well worth the price. This place is nothing like the reviews in 2007. I have stayed here over four weeks and will be returning. For the price, I could not ask for better. The grounds were always clean and my room cleaned daily. The General Manager was working diligently to upgrade the rooms and seemed to care about the space and service delivered. My room was child proof (furniture rounded corners - added bonus) with new carpet. The maintenance crew, very friendly and respectful. Reception had several staff members working, I chose to work with the same staff member whom I thought was the friendliest. I was a little nervous at first of the location since it was not with all the other hotels. I was more nervous because of the bad reviews. I am relieved to say, I have been here over a month and have observed nothing strange, felt safe, and have had a pleasant stay. I hope others have had a good experience as I have and take the time to write a positive review. Although this place does not offer food or shuttle service, the price break is low enough to order breakfast as you like at Dennys located in the same lot and/or have a rental car compared to higher priced hotels with simple continental breakfast and shuttle service where you have to wait and travel with others. Good for if you are looking for a basic room and want to save money to have your own car or order food, vs. microwaved continental breakfasts... Clientele is diverse. The bad reviews of the past posted portrays a very negative scene and not reflective of how it is today, under this new manager. Definitely for the price worth trying out, you can always change if you are not satisfied. Additional bonus, we watched the fireworks from in front of the hotel and easily retired to bed.More</t>
   </si>
   <si>
+    <t>KAVEA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r14126122-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -876,6 +984,9 @@
     <t>November 2007</t>
   </si>
   <si>
+    <t>magardiner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r8471163-Key_Inn-Tustin_California.html</t>
   </si>
   <si>
@@ -892,6 +1003,9 @@
   </si>
   <si>
     <t>August 2007</t>
+  </si>
+  <si>
+    <t>sarge_park</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d271588-r8092551-Key_Inn-Tustin_California.html</t>
@@ -1414,34 +1528,38 @@
       <c r="A2" t="n">
         <v>11168</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -1458,56 +1576,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11168</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1525,50 +1647,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11168</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1586,50 +1712,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11168</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1643,50 +1773,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11168</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1700,50 +1834,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11168</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1757,50 +1895,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11168</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1814,50 +1956,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11168</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1877,50 +2023,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11168</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1934,50 +2084,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11168</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1997,50 +2151,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11168</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2054,50 +2212,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11168</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2111,50 +2273,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11168</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2168,50 +2334,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>11168</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2225,50 +2395,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>11168</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2286,50 +2460,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>11168</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2347,47 +2525,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="X17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>11168</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -2406,50 +2588,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>11168</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2467,50 +2653,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>11168</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2526,50 +2716,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>11168</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2589,50 +2783,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>11168</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2650,50 +2848,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>11168</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2707,41 +2909,45 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>11168</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>216</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="K24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -2770,41 +2976,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>11168</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
@@ -2831,56 +3041,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="X25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="Y25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>11168</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="O26" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -2904,50 +3118,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>11168</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>238</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -2971,41 +3189,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>11168</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>245</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
@@ -3034,41 +3256,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>11168</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
@@ -3097,50 +3323,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>11168</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>257</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3164,50 +3394,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>11168</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>264</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="J31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -3231,50 +3465,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>11168</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3298,50 +3536,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>11168</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3365,50 +3607,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>11168</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>287</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="J34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="K34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3432,50 +3678,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>11168</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>293</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="J35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="O35" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -3497,56 +3747,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="X35" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="Y35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>11168</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>303</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="J36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -3570,50 +3824,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>11168</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>311</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="J37" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="K37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="O37" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -3637,50 +3895,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>11168</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>318</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="J38" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="K38" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -3704,50 +3966,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>11168</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>325</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="J39" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="K39" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="O39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -3771,7 +4037,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
